--- a/src/main/resources/SH600636.xlsx
+++ b/src/main/resources/SH600636.xlsx
@@ -2501,6 +2501,16 @@
         <v>1465.0</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20210208</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1101.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
